--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf2</t>
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>90.56297805993189</v>
+        <v>92.6413385996138</v>
       </c>
       <c r="R2">
-        <v>815.066802539387</v>
+        <v>833.7720473965242</v>
       </c>
       <c r="S2">
-        <v>0.02616578347619549</v>
+        <v>0.03338862681694603</v>
       </c>
       <c r="T2">
-        <v>0.02616578347619549</v>
+        <v>0.03338862681694602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>48.3514078655439</v>
+        <v>57.93983679772112</v>
       </c>
       <c r="R3">
-        <v>435.162670789895</v>
+        <v>521.45853117949</v>
       </c>
       <c r="S3">
-        <v>0.01396986380176011</v>
+        <v>0.0208819477127237</v>
       </c>
       <c r="T3">
-        <v>0.01396986380176011</v>
+        <v>0.0208819477127237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>108.7686980056995</v>
+        <v>64.95472885470291</v>
       </c>
       <c r="R4">
-        <v>978.9182820512959</v>
+        <v>584.5925596923261</v>
       </c>
       <c r="S4">
-        <v>0.03142584599107839</v>
+        <v>0.023410166935289</v>
       </c>
       <c r="T4">
-        <v>0.03142584599107839</v>
+        <v>0.02341016693528899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>8.27832618524889</v>
+        <v>8.326080048652223</v>
       </c>
       <c r="R5">
-        <v>74.50493566724001</v>
+        <v>74.93472043787</v>
       </c>
       <c r="S5">
-        <v>0.002391803970549605</v>
+        <v>0.003000781117746368</v>
       </c>
       <c r="T5">
-        <v>0.002391803970549605</v>
+        <v>0.003000781117746368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H6">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I6">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J6">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>66.84892139213136</v>
+        <v>65.84168060988956</v>
       </c>
       <c r="R6">
-        <v>601.6402925291821</v>
+        <v>592.575125489006</v>
       </c>
       <c r="S6">
-        <v>0.01931423237436145</v>
+        <v>0.02372983093848903</v>
       </c>
       <c r="T6">
-        <v>0.01931423237436145</v>
+        <v>0.02372983093848903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>755.1472262986601</v>
+        <v>644.6405408263603</v>
       </c>
       <c r="R7">
-        <v>6796.325036687941</v>
+        <v>5801.764867437241</v>
       </c>
       <c r="S7">
-        <v>0.2181798703980826</v>
+        <v>0.232333241014021</v>
       </c>
       <c r="T7">
-        <v>0.2181798703980826</v>
+        <v>0.232333241014021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>403.1717189461001</v>
@@ -948,10 +948,10 @@
         <v>3628.5454705149</v>
       </c>
       <c r="S8">
-        <v>0.1164858325958316</v>
+        <v>0.1453060833373375</v>
       </c>
       <c r="T8">
-        <v>0.1164858325958316</v>
+        <v>0.1453060833373375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>906.9531763052801</v>
+        <v>451.9845262501401</v>
       </c>
       <c r="R9">
-        <v>8162.578586747521</v>
+        <v>4067.860736251261</v>
       </c>
       <c r="S9">
-        <v>0.2620401950402642</v>
+        <v>0.162898581800749</v>
       </c>
       <c r="T9">
-        <v>0.2620401950402642</v>
+        <v>0.162898581800749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>69.02771078320001</v>
+        <v>57.9366493043</v>
       </c>
       <c r="R10">
-        <v>621.2493970488001</v>
+        <v>521.4298437387</v>
       </c>
       <c r="S10">
-        <v>0.01994373609285894</v>
+        <v>0.02088079891640957</v>
       </c>
       <c r="T10">
-        <v>0.01994373609285894</v>
+        <v>0.02088079891640957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>557.4107505267602</v>
+        <v>458.1563396953401</v>
       </c>
       <c r="R11">
-        <v>5016.696754740841</v>
+        <v>4123.40705725806</v>
       </c>
       <c r="S11">
-        <v>0.1610491319746006</v>
+        <v>0.1651229492270035</v>
       </c>
       <c r="T11">
-        <v>0.1610491319746006</v>
+        <v>0.1651229492270034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>30.375860237601</v>
+        <v>37.68161466557557</v>
       </c>
       <c r="R12">
-        <v>273.382742138409</v>
+        <v>339.1345319901801</v>
       </c>
       <c r="S12">
-        <v>0.008776303506210488</v>
+        <v>0.01358073392447838</v>
       </c>
       <c r="T12">
-        <v>0.008776303506210491</v>
+        <v>0.01358073392447837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H13">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I13">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J13">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>16.217616062085</v>
+        <v>23.56687238117222</v>
       </c>
       <c r="R13">
-        <v>145.958544558765</v>
+        <v>212.10185143055</v>
       </c>
       <c r="S13">
-        <v>0.004685652343496989</v>
+        <v>0.008493675923426607</v>
       </c>
       <c r="T13">
-        <v>0.004685652343496991</v>
+        <v>0.008493675923426605</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H14">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I14">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J14">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>36.482267253408</v>
+        <v>26.42016080950778</v>
       </c>
       <c r="R14">
-        <v>328.340405280672</v>
+        <v>237.78144728557</v>
       </c>
       <c r="S14">
-        <v>0.01054058872756651</v>
+        <v>0.009522022274795105</v>
       </c>
       <c r="T14">
-        <v>0.01054058872756651</v>
+        <v>0.009522022274795103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H15">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I15">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J15">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>2.77664543052</v>
+        <v>3.386610608294444</v>
       </c>
       <c r="R15">
-        <v>24.98980887468</v>
+        <v>30.47949547465</v>
       </c>
       <c r="S15">
-        <v>0.0008022384497677877</v>
+        <v>0.001220559627957763</v>
       </c>
       <c r="T15">
-        <v>0.0008022384497677878</v>
+        <v>0.001220559627957763</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H16">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I16">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J16">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>22.421893987386</v>
+        <v>26.78092604424111</v>
       </c>
       <c r="R16">
-        <v>201.7970458864741</v>
+        <v>241.02833439817</v>
       </c>
       <c r="S16">
-        <v>0.006478214782335229</v>
+        <v>0.009652044746114289</v>
       </c>
       <c r="T16">
-        <v>0.006478214782335229</v>
+        <v>0.009652044746114287</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H17">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N17">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O17">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P17">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q17">
-        <v>94.91615273273267</v>
+        <v>82.66229883347002</v>
       </c>
       <c r="R17">
-        <v>854.2453745945941</v>
+        <v>743.9606895012301</v>
       </c>
       <c r="S17">
-        <v>0.02742351846197726</v>
+        <v>0.02979210673444553</v>
       </c>
       <c r="T17">
-        <v>0.02742351846197726</v>
+        <v>0.02979210673444553</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H18">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q18">
-        <v>50.67555983827667</v>
+        <v>51.69873596532501</v>
       </c>
       <c r="R18">
-        <v>456.08003854449</v>
+        <v>465.2886236879251</v>
       </c>
       <c r="S18">
-        <v>0.01464136620359206</v>
+        <v>0.01863260859727321</v>
       </c>
       <c r="T18">
-        <v>0.01464136620359206</v>
+        <v>0.01863260859727321</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H19">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N19">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q19">
-        <v>113.9969839067947</v>
+        <v>57.958005447655</v>
       </c>
       <c r="R19">
-        <v>1025.972855161152</v>
+        <v>521.622049028895</v>
       </c>
       <c r="S19">
-        <v>0.03293642128100722</v>
+        <v>0.02088849582916481</v>
       </c>
       <c r="T19">
-        <v>0.03293642128100722</v>
+        <v>0.02088849582916481</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H20">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N20">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q20">
-        <v>8.676248168986666</v>
+        <v>7.429220340474999</v>
       </c>
       <c r="R20">
-        <v>78.08623352088</v>
+        <v>66.862983064275</v>
       </c>
       <c r="S20">
-        <v>0.002506773030644013</v>
+        <v>0.002677546214665971</v>
       </c>
       <c r="T20">
-        <v>0.002506773030644013</v>
+        <v>0.002677546214665971</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H21">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N21">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q21">
-        <v>70.06221050587602</v>
+        <v>58.749417490555</v>
       </c>
       <c r="R21">
-        <v>630.5598945528841</v>
+        <v>528.744757414995</v>
       </c>
       <c r="S21">
-        <v>0.02024262749781928</v>
+        <v>0.02117372661013428</v>
       </c>
       <c r="T21">
-        <v>0.02024262749781927</v>
+        <v>0.02117372661013428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.023536</v>
+      </c>
+      <c r="I22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>86.89540866666668</v>
+      </c>
+      <c r="N22">
+        <v>260.686226</v>
+      </c>
+      <c r="O22">
+        <v>0.319779657009892</v>
+      </c>
+      <c r="P22">
+        <v>0.3197796570098919</v>
+      </c>
+      <c r="Q22">
+        <v>29.64685966834845</v>
+      </c>
+      <c r="R22">
+        <v>266.821737015136</v>
+      </c>
+      <c r="S22">
+        <v>0.010684948520001</v>
+      </c>
+      <c r="T22">
+        <v>0.010684948520001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.023536</v>
+      </c>
+      <c r="I23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>54.34621166666667</v>
+      </c>
+      <c r="N23">
+        <v>163.038635</v>
+      </c>
+      <c r="O23">
+        <v>0.1999969065479545</v>
+      </c>
+      <c r="P23">
+        <v>0.1999969065479545</v>
+      </c>
+      <c r="Q23">
+        <v>18.54176803481778</v>
+      </c>
+      <c r="R23">
+        <v>166.87591231336</v>
+      </c>
+      <c r="S23">
+        <v>0.006682590977193527</v>
+      </c>
+      <c r="T23">
+        <v>0.006682590977193525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.023536</v>
+      </c>
+      <c r="I24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>60.92601633333334</v>
+      </c>
+      <c r="N24">
+        <v>182.778049</v>
+      </c>
+      <c r="O24">
+        <v>0.224210932487692</v>
+      </c>
+      <c r="P24">
+        <v>0.224210932487692</v>
+      </c>
+      <c r="Q24">
+        <v>20.78665701791822</v>
+      </c>
+      <c r="R24">
+        <v>187.079913161264</v>
+      </c>
+      <c r="S24">
+        <v>0.007491665647694096</v>
+      </c>
+      <c r="T24">
+        <v>0.007491665647694095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.023536</v>
+      </c>
+      <c r="I25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.809668333333332</v>
+      </c>
+      <c r="N25">
+        <v>23.429005</v>
+      </c>
+      <c r="O25">
+        <v>0.02873998867505581</v>
+      </c>
+      <c r="P25">
+        <v>0.02873998867505581</v>
+      </c>
+      <c r="Q25">
+        <v>2.664492229075555</v>
+      </c>
+      <c r="R25">
+        <v>23.98043006168</v>
+      </c>
+      <c r="S25">
+        <v>0.0009603027982761386</v>
+      </c>
+      <c r="T25">
+        <v>0.0009603027982761386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.023536</v>
+      </c>
+      <c r="I26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>61.75795633333333</v>
+      </c>
+      <c r="N26">
+        <v>185.273869</v>
+      </c>
+      <c r="O26">
+        <v>0.2272725152794058</v>
+      </c>
+      <c r="P26">
+        <v>0.2272725152794058</v>
+      </c>
+      <c r="Q26">
+        <v>21.07049719786489</v>
+      </c>
+      <c r="R26">
+        <v>189.634474780784</v>
+      </c>
+      <c r="S26">
+        <v>0.007593963757664773</v>
+      </c>
+      <c r="T26">
+        <v>0.007593963757664773</v>
       </c>
     </row>
   </sheetData>
